--- a/data/korea_voter_21th_election.xlsx
+++ b/data/korea_voter_21th_election.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D254"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,6 +387,11 @@
           <t>시도명</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>선거구명 전체</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -407,6 +412,11 @@
           <t>전북</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>전북 전주시갑</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -427,6 +437,11 @@
           <t>전북</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>전북 전주시을</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -447,6 +462,11 @@
           <t>전북</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>전북 전주시병</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -467,6 +487,11 @@
           <t>전북</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>전북 군산시</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -487,6 +512,11 @@
           <t>전북</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>전북 익산시갑</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -507,6 +537,11 @@
           <t>전북</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>전북 익산시을</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -527,6 +562,11 @@
           <t>전북</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>전북 정읍시고창군</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -547,6 +587,11 @@
           <t>전북</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>전북 남원시임실군순창군</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -567,6 +612,11 @@
           <t>전북</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>전북 김제시부안군</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -587,6 +637,11 @@
           <t>전북</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>전북 완주군진안군무주군장수군</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -607,6 +662,11 @@
           <t>경북</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>경북 포항시북구</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -627,6 +687,11 @@
           <t>경북</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>경북 포항시남구울릉군</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -647,6 +712,11 @@
           <t>경북</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>경북 경주시</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -667,6 +737,11 @@
           <t>경북</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>경북 김천시</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -687,6 +762,11 @@
           <t>경북</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>경북 안동시예천군</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -707,6 +787,11 @@
           <t>경북</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>경북 구미시갑</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -727,6 +812,11 @@
           <t>경북</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>경북 구미시을</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -747,6 +837,11 @@
           <t>경북</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>경북 영주시영양군봉화군울진군</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -767,6 +862,11 @@
           <t>경북</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>경북 영천시청도군</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -787,6 +887,11 @@
           <t>경북</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>경북 상주시문경시</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -807,6 +912,11 @@
           <t>경북</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>경북 경산시</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -827,6 +937,11 @@
           <t>경북</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>경북 군위군의성군청송군영덕군</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -847,6 +962,11 @@
           <t>경북</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>경북 고령군성주군칠곡군</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -867,6 +987,11 @@
           <t>충북</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>충북 청주시상당구</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -887,6 +1012,11 @@
           <t>충북</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>충북 청주시서원구</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -907,6 +1037,11 @@
           <t>충북</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>충북 청주시흥덕구</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -927,6 +1062,11 @@
           <t>충북</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>충북 청주시청원구</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -947,6 +1087,11 @@
           <t>충북</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>충북 충주시</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -967,6 +1112,11 @@
           <t>충북</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>충북 제천시단양군</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -987,6 +1137,11 @@
           <t>충북</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>충북 보은군옥천군영동군괴산군</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1007,6 +1162,11 @@
           <t>충북</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>충북 증평군진천군음성군</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1027,6 +1187,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>부산 중구영도구</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1047,6 +1212,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>부산 서구동구</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1067,6 +1237,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>부산 부산진구갑</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1087,6 +1262,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>부산 부산진구을</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1107,6 +1287,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>부산 동래구</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1127,6 +1312,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>부산 남구갑</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1147,6 +1337,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>부산 남구을</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1167,6 +1362,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>부산 북구강서구갑</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1187,6 +1387,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>부산 북구강서구을</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1207,6 +1412,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>부산 해운대구갑</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1227,6 +1437,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>부산 해운대구을</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1247,6 +1462,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>부산 사하구갑</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1267,6 +1487,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>부산 사하구을</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1287,6 +1512,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>부산 금정구</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1307,6 +1537,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>부산 연제구</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1327,6 +1562,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>부산 수영구</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1347,6 +1587,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>부산 사상구</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1367,6 +1612,11 @@
           <t>부산</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>부산 기장군</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1387,6 +1637,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>서울 종로구</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1407,6 +1662,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>서울 중구성동구갑</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1427,6 +1687,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>서울 중구성동구을</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1447,6 +1712,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>서울 용산구</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1467,6 +1737,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>서울 광진구갑</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1487,6 +1762,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>서울 광진구을</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1507,6 +1787,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>서울 동대문구갑</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1527,6 +1812,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>서울 동대문구을</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1547,6 +1837,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>서울 중랑구갑</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1567,6 +1862,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>서울 중랑구을</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1587,6 +1887,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>서울 성북구갑</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1607,6 +1912,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>서울 성북구을</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1627,6 +1937,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>서울 강북구갑</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1647,6 +1962,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>서울 강북구을</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1667,6 +1987,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>서울 도봉구갑</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1687,6 +2012,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>서울 도봉구을</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1707,6 +2037,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>서울 노원구갑</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1727,6 +2062,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>서울 노원구을</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1747,6 +2087,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>서울 노원구병</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1767,6 +2112,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>서울 은평구갑</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1787,6 +2137,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>서울 은평구을</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1807,6 +2162,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>서울 서대문구갑</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1827,6 +2187,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>서울 서대문구을</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1847,6 +2212,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>서울 마포구갑</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1867,6 +2237,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>서울 마포구을</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1887,6 +2262,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>서울 양천구갑</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1907,6 +2287,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>서울 양천구을</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1927,6 +2312,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>서울 강서구갑</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1947,6 +2337,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>서울 강서구을</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1967,6 +2362,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>서울 강서구병</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1987,6 +2387,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>서울 구로구갑</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2007,6 +2412,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>서울 구로구을</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2027,6 +2437,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>서울 금천구</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2047,6 +2462,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>서울 영등포구갑</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2067,6 +2487,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>서울 영등포구을</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2087,6 +2512,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>서울 동작구갑</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2107,6 +2537,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>서울 동작구을</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2127,6 +2562,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>서울 관악구갑</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2147,6 +2587,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>서울 관악구을</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2167,6 +2612,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>서울 서초구갑</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2187,6 +2637,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>서울 서초구을</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2207,6 +2662,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>서울 강남구갑</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2227,6 +2687,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>서울 강남구을</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2247,6 +2712,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>서울 강남구병</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2267,6 +2737,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>서울 송파구갑</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2287,6 +2762,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>서울 송파구을</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2307,6 +2787,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>서울 송파구병</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2327,6 +2812,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>서울 강동구갑</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2347,6 +2837,11 @@
           <t>서울</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>서울 강동구을</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2367,6 +2862,11 @@
           <t>인천</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>인천 중구강화군옹진군</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2387,6 +2887,11 @@
           <t>인천</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>인천 동구미추홀구갑</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2407,6 +2912,11 @@
           <t>인천</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>인천 동구미추홀구을</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2427,6 +2937,11 @@
           <t>인천</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>인천 연수구갑</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2447,6 +2962,11 @@
           <t>인천</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>인천 연수구을</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2467,6 +2987,11 @@
           <t>인천</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>인천 남동구갑</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2487,6 +3012,11 @@
           <t>인천</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>인천 남동구을</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2507,6 +3037,11 @@
           <t>인천</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>인천 부평구갑</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2527,6 +3062,11 @@
           <t>인천</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>인천 부평구을</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2547,6 +3087,11 @@
           <t>인천</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>인천 계양구갑</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2567,6 +3112,11 @@
           <t>인천</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>인천 계양구을</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2587,6 +3137,11 @@
           <t>인천</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>인천 서구갑</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2607,6 +3162,11 @@
           <t>인천</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>인천 서구을</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2627,6 +3187,11 @@
           <t>전남</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>전남 목포시</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2647,6 +3212,11 @@
           <t>전남</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>전남 여수시갑</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2667,6 +3237,11 @@
           <t>전남</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>전남 여수시을</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2687,6 +3262,11 @@
           <t>전남</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>전남 순천시광양시곡성군구례군갑</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2707,6 +3287,11 @@
           <t>전남</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>전남 순천시광양시곡성군구례군을</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2727,6 +3312,11 @@
           <t>전남</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>전남 나주시화순군</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2747,6 +3337,11 @@
           <t>전남</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>전남 담양군함평군영광군장성군</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2767,6 +3362,11 @@
           <t>전남</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>전남 고흥군보성군장흥군강진군</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2787,6 +3387,11 @@
           <t>전남</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>전남 해남군완도군진도군</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2807,6 +3412,11 @@
           <t>전남</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>전남 영암군무안군신안군</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2827,6 +3437,11 @@
           <t>대전</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>대전 동구</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2847,6 +3462,11 @@
           <t>대전</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>대전 중구</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2867,6 +3487,11 @@
           <t>대전</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>대전 서구갑</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2887,6 +3512,11 @@
           <t>대전</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>대전 서구을</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2907,6 +3537,11 @@
           <t>대전</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>대전 유성구갑</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2927,6 +3562,11 @@
           <t>대전</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>대전 유성구을</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2947,6 +3587,11 @@
           <t>대전</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>대전 대덕구</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2967,6 +3612,11 @@
           <t>세종</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>세종 세종특별자치시갑</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2987,6 +3637,11 @@
           <t>세종</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>세종 세종특별자치시을</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3007,6 +3662,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>경남 창원시의창구</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3027,6 +3687,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>경남 창원시성산구</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3047,6 +3712,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>경남 창원시마산합포구</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3067,6 +3737,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>경남 창원시마산회원구</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3087,6 +3762,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>경남 창원시진해구</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3107,6 +3787,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>경남 진주시갑</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3127,6 +3812,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>경남 진주시을</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3147,6 +3837,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>경남 통영시고성군</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3167,6 +3862,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>경남 사천시남해군하동군</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3187,6 +3887,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>경남 김해시갑</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3207,6 +3912,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>경남 김해시을</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3227,6 +3937,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>경남 밀양시의령군함안군창녕군</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3247,6 +3962,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>경남 거제시</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3267,6 +3987,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>경남 양산시갑</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3287,6 +4012,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>경남 양산시을</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3307,6 +4037,11 @@
           <t>경남</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>경남 산청군함양군거창군합천군</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3327,6 +4062,11 @@
           <t>제주</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>제주 제주시갑</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3347,6 +4087,11 @@
           <t>제주</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>제주 제주시을</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3367,6 +4112,11 @@
           <t>제주</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>제주 서귀포시</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3387,6 +4137,11 @@
           <t>충남</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>충남 천안시갑</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3407,6 +4162,11 @@
           <t>충남</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>충남 천안시을</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3427,6 +4187,11 @@
           <t>충남</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>충남 천안시병</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3447,6 +4212,11 @@
           <t>충남</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>충남 공주시부여군청양군</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3467,6 +4237,11 @@
           <t>충남</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>충남 보령시서천군</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3487,6 +4262,11 @@
           <t>충남</t>
         </is>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>충남 아산시갑</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3507,6 +4287,11 @@
           <t>충남</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>충남 아산시을</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3527,6 +4312,11 @@
           <t>충남</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>충남 서산시태안군</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3547,6 +4337,11 @@
           <t>충남</t>
         </is>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>충남 논산시계룡시금산군</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3567,6 +4362,11 @@
           <t>충남</t>
         </is>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>충남 당진시</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3587,6 +4387,11 @@
           <t>충남</t>
         </is>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>충남 홍성군예산군</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3607,6 +4412,11 @@
           <t>광주</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>광주 동구남구갑</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3627,6 +4437,11 @@
           <t>광주</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>광주 동구남구을</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3647,6 +4462,11 @@
           <t>광주</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>광주 서구갑</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3667,6 +4487,11 @@
           <t>광주</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>광주 서구을</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3687,6 +4512,11 @@
           <t>광주</t>
         </is>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>광주 북구갑</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3707,6 +4537,11 @@
           <t>광주</t>
         </is>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>광주 북구을</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3727,6 +4562,11 @@
           <t>광주</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>광주 광산구갑</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3747,6 +4587,11 @@
           <t>광주</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>광주 광산구을</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3767,6 +4612,11 @@
           <t>강원</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>강원 춘천시철원군화천군양구군갑</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3787,6 +4637,11 @@
           <t>강원</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>강원 춘천시철원군화천군양구군을</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3807,6 +4662,11 @@
           <t>강원</t>
         </is>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>강원 원주시갑</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3827,6 +4687,11 @@
           <t>강원</t>
         </is>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>강원 원주시을</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3847,6 +4712,11 @@
           <t>강원</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>강원 강릉시</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3867,6 +4737,11 @@
           <t>강원</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>강원 동해시태백시삼척시정선군</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3887,6 +4762,11 @@
           <t>강원</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>강원 속초시인제군고성군양양군</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3907,6 +4787,11 @@
           <t>강원</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>강원 홍천군횡성군영월군평창군</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3927,6 +4812,11 @@
           <t>대구</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>대구 중구남구</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3947,6 +4837,11 @@
           <t>대구</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>대구 동구갑</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3967,6 +4862,11 @@
           <t>대구</t>
         </is>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>대구 동구을</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3987,6 +4887,11 @@
           <t>대구</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>대구 서구</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4007,6 +4912,11 @@
           <t>대구</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>대구 북구갑</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4027,6 +4937,11 @@
           <t>대구</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>대구 북구을</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4047,6 +4962,11 @@
           <t>대구</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>대구 수성구갑</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4067,6 +4987,11 @@
           <t>대구</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>대구 수성구을</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4087,6 +5012,11 @@
           <t>대구</t>
         </is>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>대구 달서구갑</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4107,6 +5037,11 @@
           <t>대구</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>대구 달서구을</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4127,6 +5062,11 @@
           <t>대구</t>
         </is>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>대구 달서구병</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4147,6 +5087,11 @@
           <t>대구</t>
         </is>
       </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>대구 달성군</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4167,6 +5112,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>경기 수원시갑</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4187,6 +5137,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>경기 수원시을</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4207,6 +5162,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>경기 수원시병</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4227,6 +5187,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>경기 수원시정</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4247,6 +5212,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>경기 수원시무</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4267,6 +5237,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>경기 성남시수정구</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4287,6 +5262,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>경기 성남시중원구</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4307,6 +5287,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>경기 성남시분당구갑</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4327,6 +5312,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>경기 성남시분당구을</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4347,6 +5337,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>경기 의정부시갑</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4367,6 +5362,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>경기 의정부시을</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4387,6 +5387,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>경기 안양시만안구</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4407,6 +5412,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>경기 안양시동안구갑</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4427,6 +5437,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>경기 안양시동안구을</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4447,6 +5462,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>경기 부천시갑</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4467,6 +5487,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>경기 부천시을</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4487,6 +5512,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>경기 부천시병</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4507,6 +5537,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>경기 부천시정</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4527,6 +5562,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>경기 광명시갑</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -4547,6 +5587,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>경기 광명시을</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4567,6 +5612,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>경기 평택시갑</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4587,6 +5637,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>경기 평택시을</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4607,6 +5662,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>경기 동두천시연천군</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -4627,6 +5687,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>경기 안산시상록구갑</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4647,6 +5712,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>경기 안산시상록구을</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4667,6 +5737,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>경기 안산시단원구갑</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4687,6 +5762,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>경기 안산시단원구을</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4707,6 +5787,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>경기 고양시갑</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -4727,6 +5812,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>경기 고양시을</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -4747,6 +5837,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>경기 고양시병</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -4767,6 +5862,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>경기 고양시정</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -4787,6 +5887,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>경기 의왕시과천시</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -4807,6 +5912,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>경기 구리시</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -4827,6 +5937,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>경기 남양주시갑</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -4847,6 +5962,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>경기 남양주시을</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -4867,6 +5987,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>경기 남양주시병</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -4887,6 +6012,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>경기 오산시</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -4907,6 +6037,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>경기 시흥시갑</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4927,6 +6062,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>경기 시흥시을</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -4947,6 +6087,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>경기 군포시</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -4967,6 +6112,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>경기 하남시</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -4987,6 +6137,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>경기 용인시갑</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5007,6 +6162,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>경기 용인시을</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5027,6 +6187,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>경기 용인시병</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5047,6 +6212,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>경기 용인시정</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5067,6 +6237,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>경기 파주시갑</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5087,6 +6262,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>경기 파주시을</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5107,6 +6287,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>경기 이천시</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5127,6 +6312,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>경기 안성시</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5147,6 +6337,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>경기 김포시갑</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5167,6 +6362,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>경기 김포시을</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5187,6 +6387,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>경기 화성시갑</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5207,6 +6412,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>경기 화성시을</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5227,6 +6437,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>경기 화성시병</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5247,6 +6462,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>경기 광주시갑</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5267,6 +6487,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>경기 광주시을</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5287,6 +6512,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>경기 양주시</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5307,6 +6537,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>경기 포천시가평군</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5327,6 +6562,11 @@
           <t>경기</t>
         </is>
       </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>경기 여주시양평군</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5347,6 +6587,11 @@
           <t>울산</t>
         </is>
       </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>울산 중구</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5367,6 +6612,11 @@
           <t>울산</t>
         </is>
       </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>울산 남구갑</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5387,6 +6637,11 @@
           <t>울산</t>
         </is>
       </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>울산 남구을</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5407,6 +6662,11 @@
           <t>울산</t>
         </is>
       </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>울산 동구</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -5427,6 +6687,11 @@
           <t>울산</t>
         </is>
       </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>울산 북구</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -5445,6 +6710,11 @@
       <c r="D254" t="inlineStr">
         <is>
           <t>울산</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>울산 울주군</t>
         </is>
       </c>
     </row>
